--- a/biology/Zoologie/Anthrenus/Anthrenus.xlsx
+++ b/biology/Zoologie/Anthrenus/Anthrenus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthrenus (les anthrènes) est un genre d'insectes de l'ordre des coléoptères, de la famille des dermestidés. Ce sont de très petits insectes, dont les larves velues consomment toutes sortes de matières organiques sèches.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (31 août 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (31 août 2014) :
 Anthrenus blanci Beal, 1998
 Anthrenus castaneae Melsheimer, 1844
 Anthrenus chiton Beal, 1998
@@ -531,7 +545,7 @@
 Anthrenus thoracicus Melsheimer, 1844
 Anthrenus umbra Beal, 1998
 Anthrenus verbasci (Linnaeus, 1767)
-Selon NCBI  (6 juin 2021)[2] :
+Selon NCBI  (6 juin 2021) :
 Anthrenus angustefasciatus
 Anthrenus festivus
 Anthrenus flavipes
